--- a/Certification.xlsx
+++ b/Certification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://openword-my.sharepoint.com/personal/duncan_jack_openword_net/Documents/DP-600-Fabric-Analytics-Engineer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github.com\open-word\DP-600-Fabric-Analytics-Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="786" documentId="8_{7E6ED3E0-1E62-4451-82BD-DBA78DFBFA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45785E61-8B12-4ACC-91E3-6C310A4CDC39}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF50694D-4FD7-4F79-9150-AA10D53F2852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1680" windowWidth="29040" windowHeight="16440" xr2:uid="{C91A3575-F826-4DBB-9127-8E0D5980857F}"/>
+    <workbookView xWindow="28680" yWindow="1680" windowWidth="29040" windowHeight="16440" xr2:uid="{C91A3575-F826-4DBB-9127-8E0D5980857F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="86">
   <si>
     <t>Learning Path</t>
   </si>
@@ -504,10 +504,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -810,7 +806,7 @@
   <dimension ref="B2:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,7 +1581,7 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D32" s="29"/>
@@ -1611,22 +1607,24 @@
       <c r="C33" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="29"/>
+      <c r="D33" s="29" t="s">
+        <v>58</v>
+      </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>59</v>
+      <c r="F33" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -1715,6 +1713,7 @@
     <hyperlink ref="C42" r:id="rId29" xr:uid="{42BCA078-6981-45C9-A9AA-52FA7F21F70B}"/>
     <hyperlink ref="C43" r:id="rId30" xr:uid="{F779059D-6C21-4184-AA2C-4D8BBB608E59}"/>
     <hyperlink ref="D25" r:id="rId31" xr:uid="{9CE2ED4B-3C0D-4AB9-A22C-B1AE11BB3DA9}"/>
+    <hyperlink ref="C32" r:id="rId32" xr:uid="{0C38A5C7-46E8-4B87-B6A8-6E8090B6AED5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Certification.xlsx
+++ b/Certification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github.com\open-word\DP-600-Fabric-Analytics-Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF50694D-4FD7-4F79-9150-AA10D53F2852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7F1041-8238-4C7C-9569-293205CC2BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1680" windowWidth="29040" windowHeight="16440" xr2:uid="{C91A3575-F826-4DBB-9127-8E0D5980857F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="88">
   <si>
     <t>Learning Path</t>
   </si>
@@ -294,13 +294,19 @@
   </si>
   <si>
     <t>DP-500 Lab 07</t>
+  </si>
+  <si>
+    <t>DP-500 Lab 16</t>
+  </si>
+  <si>
+    <t>Create reusable Power BI assets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,19 +328,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -452,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -462,16 +469,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -488,6 +494,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -806,14 +818,14 @@
   <dimension ref="B2:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -834,25 +846,25 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -860,82 +872,82 @@
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="16" t="s">
+      <c r="F5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="15" t="s">
+      <c r="F6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="18" t="s">
+      <c r="F7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>56</v>
       </c>
     </row>
@@ -943,186 +955,190 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="16" t="s">
+      <c r="D8" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="15" t="s">
+      <c r="F9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="15" t="s">
+      <c r="F10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="15" t="s">
+      <c r="F11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="15" t="s">
+      <c r="F12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="15" t="s">
+      <c r="F13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="18" t="s">
+      <c r="F14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="17" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1130,109 +1146,109 @@
       <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>52</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="16" t="s">
+      <c r="F15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="15" t="s">
+      <c r="F16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="15" t="s">
+      <c r="F17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="26" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="18" t="s">
+      <c r="F18" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="17" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1240,7 +1256,7 @@
       <c r="B19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1249,25 +1265,25 @@
       <c r="E19" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="16" t="s">
+      <c r="F19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1276,73 +1292,73 @@
       <c r="E20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="15" t="s">
+      <c r="F20" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" s="15" t="s">
+      <c r="F21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="32" t="s">
         <v>74</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="18" t="s">
+      <c r="F22" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="17" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1350,7 +1366,7 @@
       <c r="B23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>77</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1359,127 +1375,127 @@
       <c r="E23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J23" s="16" t="s">
+      <c r="F23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="33" t="s">
         <v>79</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="15" t="s">
+      <c r="F24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="33" t="s">
         <v>85</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J25" s="15" t="s">
+      <c r="F25" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="30" t="s">
         <v>74</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J26" s="15" t="s">
+      <c r="F26" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27" s="18" t="s">
+      <c r="F27" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="17" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1487,70 +1503,82 @@
       <c r="B28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" s="5" t="s">
+      <c r="D28" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="5" t="s">
+      <c r="D29" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30" s="6" t="s">
+      <c r="D30" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="17" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1558,7 +1586,7 @@
       <c r="B31" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="8"/>
@@ -1584,52 +1612,52 @@
       <c r="C32" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="29"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" s="15" t="s">
+      <c r="F32" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="34" t="s">
         <v>58</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="15" t="s">
+      <c r="F33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="29" t="s">
         <v>57</v>
       </c>
       <c r="D34" s="6"/>
@@ -1714,6 +1742,10 @@
     <hyperlink ref="C43" r:id="rId30" xr:uid="{F779059D-6C21-4184-AA2C-4D8BBB608E59}"/>
     <hyperlink ref="D25" r:id="rId31" xr:uid="{9CE2ED4B-3C0D-4AB9-A22C-B1AE11BB3DA9}"/>
     <hyperlink ref="C32" r:id="rId32" xr:uid="{0C38A5C7-46E8-4B87-B6A8-6E8090B6AED5}"/>
+    <hyperlink ref="C28" r:id="rId33" xr:uid="{3E3E5237-6F3C-4D12-97C7-044E7D807C9B}"/>
+    <hyperlink ref="C29" r:id="rId34" xr:uid="{926DAEA7-DAE2-4EC9-88FB-6BEEE00E7B32}"/>
+    <hyperlink ref="C30" r:id="rId35" xr:uid="{DFDED96E-86C4-4CAF-8065-C6D939E9A3A9}"/>
+    <hyperlink ref="D30" r:id="rId36" xr:uid="{A948431A-0A48-430A-9F52-2525F7E3136B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Certification.xlsx
+++ b/Certification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github.com\open-word\DP-600-Fabric-Analytics-Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7F1041-8238-4C7C-9569-293205CC2BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAC9900-0B83-4F52-AAF7-53655BE22AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1680" windowWidth="29040" windowHeight="16440" xr2:uid="{C91A3575-F826-4DBB-9127-8E0D5980857F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{C91A3575-F826-4DBB-9127-8E0D5980857F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="91">
   <si>
     <t>Learning Path</t>
   </si>
@@ -116,15 +116,6 @@
     <t>Understand scalability in Power BI</t>
   </si>
   <si>
-    <t>Lab (i.e. Exercise)</t>
-  </si>
-  <si>
-    <t>Lab 05</t>
-  </si>
-  <si>
-    <t>Lab 04</t>
-  </si>
-  <si>
     <t>Ingest data with Dataflows Gen2 in Microsoft Fabric</t>
   </si>
   <si>
@@ -143,33 +134,12 @@
     <t>[DUP] Enforce Power BI model security</t>
   </si>
   <si>
-    <t>Lab 10</t>
-  </si>
-  <si>
-    <t>Lab 03b</t>
-  </si>
-  <si>
-    <t>Lab 01</t>
-  </si>
-  <si>
-    <t>Lab 02</t>
-  </si>
-  <si>
-    <t>Lab 03</t>
-  </si>
-  <si>
-    <t>Create a Microsoft Fabric Lakehouse</t>
-  </si>
-  <si>
     <t>Analyze data with Apache Spark</t>
   </si>
   <si>
     <t>Use delta tables in Apache Spark</t>
   </si>
   <si>
-    <t>Create and use Dataflows (Gen2) in Microsoft Fabric</t>
-  </si>
-  <si>
     <t>Ingest data with a pipeline in Microsoft Fabric</t>
   </si>
   <si>
@@ -179,9 +149,6 @@
     <t>Analyze data in a data warehouse</t>
   </si>
   <si>
-    <t>Load data into a warehouse using T-SQL</t>
-  </si>
-  <si>
     <t>Monitor a data warehouse in Microsoft Fabric</t>
   </si>
   <si>
@@ -191,18 +158,6 @@
     <t>Get started with data science in Microsoft Fabric</t>
   </si>
   <si>
-    <t>Lab 06a</t>
-  </si>
-  <si>
-    <t>Lab 06</t>
-  </si>
-  <si>
-    <t>Lab 06b</t>
-  </si>
-  <si>
-    <t>Lab 06c</t>
-  </si>
-  <si>
     <t>Administer Microsoft Fabric</t>
   </si>
   <si>
@@ -215,9 +170,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>TO DO</t>
-  </si>
-  <si>
     <t>Miscellaneous</t>
   </si>
   <si>
@@ -287,12 +239,6 @@
     <t>PL-300 Power BI Data Analyst (GitHub pages)</t>
   </si>
   <si>
-    <t>MSLearn Fabric (Git repository)</t>
-  </si>
-  <si>
-    <t>MSLearn Fabric (GitHub pages)</t>
-  </si>
-  <si>
     <t>DP-500 Lab 07</t>
   </si>
   <si>
@@ -300,13 +246,79 @@
   </si>
   <si>
     <t>Create reusable Power BI assets</t>
+  </si>
+  <si>
+    <t>Explore data science in Microsft Fabric</t>
+  </si>
+  <si>
+    <t>Use Data Activator in Fabric</t>
+  </si>
+  <si>
+    <t>Fabric  Lab 05</t>
+  </si>
+  <si>
+    <t>Fabric  Lab 10</t>
+  </si>
+  <si>
+    <t>Fabric  Lab 04</t>
+  </si>
+  <si>
+    <t>Fabric  Lab 01</t>
+  </si>
+  <si>
+    <t>Fabric  Lab 02</t>
+  </si>
+  <si>
+    <t>Fabric  Lab 03</t>
+  </si>
+  <si>
+    <t>Fabric  Lab 03b</t>
+  </si>
+  <si>
+    <t>Fabric  Lab 06</t>
+  </si>
+  <si>
+    <t>Fabric  Lab 06a</t>
+  </si>
+  <si>
+    <t>Fabric  Lab 06b</t>
+  </si>
+  <si>
+    <t>Fabric  Lab 06c</t>
+  </si>
+  <si>
+    <t>Fabric Lab 07</t>
+  </si>
+  <si>
+    <t>Fabric Lab 08</t>
+  </si>
+  <si>
+    <t>Fabric Lab 11</t>
+  </si>
+  <si>
+    <t>Fabric (Git repository)</t>
+  </si>
+  <si>
+    <t>Fabric (GitHub pages)</t>
+  </si>
+  <si>
+    <t>Create a Lakehouse</t>
+  </si>
+  <si>
+    <t>Create a Dataflow (Gen2) in Microsoft Fabric</t>
+  </si>
+  <si>
+    <t>Load data into a warehouse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +343,13 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -455,11 +474,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -469,29 +489,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -500,8 +511,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -817,15 +833,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A18723-27DE-4F05-A927-2EE537C61CF1}">
   <dimension ref="B2:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="51" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
     <col min="3" max="3" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -846,866 +861,878 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>61</v>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>27</v>
+      <c r="C5" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>72</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>56</v>
+        <v>89</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>35</v>
+      <c r="D6" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>58</v>
+      <c r="F6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
-      <c r="C7" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>28</v>
+      <c r="C7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>74</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>58</v>
+      <c r="D8" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>37</v>
+      <c r="D9" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>56</v>
+        <v>88</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>38</v>
+      <c r="D10" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>56</v>
+        <v>32</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>39</v>
+      <c r="D11" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>56</v>
+        <v>33</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="C12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>35</v>
+      <c r="C12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>56</v>
+        <v>89</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>35</v>
+      <c r="C13" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>56</v>
+        <v>34</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>36</v>
+      <c r="D14" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>58</v>
+        <v>35</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>52</v>
+      <c r="D15" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>56</v>
+        <v>36</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="26" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>58</v>
+        <v>90</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>58</v>
+      <c r="F17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>54</v>
+      <c r="D18" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="17" t="s">
-        <v>58</v>
+        <v>37</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="26" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="23" t="s">
+      <c r="D21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>58</v>
+      <c r="F21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
-      <c r="C22" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>74</v>
+      <c r="C22" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="23" t="s">
-        <v>77</v>
+      <c r="C23" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>58</v>
+        <v>53</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>79</v>
+      <c r="D24" s="24" t="s">
+        <v>63</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>85</v>
+      <c r="D25" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>58</v>
+      <c r="F25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="C26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>74</v>
+      <c r="C26" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>58</v>
+      <c r="F27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="35" t="s">
+      <c r="B28" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>58</v>
+      <c r="D28" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="20" t="s">
-        <v>58</v>
+      <c r="D29" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="39" t="s">
-        <v>86</v>
+      <c r="D30" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>58</v>
+        <v>69</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
-      <c r="C33" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>58</v>
+      <c r="C33" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>56</v>
+      <c r="F33" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
-      <c r="C34" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>59</v>
+      <c r="C34" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1724,29 +1751,68 @@
     <hyperlink ref="C31" r:id="rId12" xr:uid="{784D1476-4206-4AED-9F5A-F4F920FA8949}"/>
     <hyperlink ref="C34" r:id="rId13" xr:uid="{A8E5A89B-6CAD-4800-803D-1AF933AAEBE5}"/>
     <hyperlink ref="C33" r:id="rId14" xr:uid="{A895FE4A-B739-4491-8FFB-CF547F4750BD}"/>
-    <hyperlink ref="D4" r:id="rId15" xr:uid="{BD3D08AA-CC55-42BB-B6DA-08DCB9E599C6}"/>
-    <hyperlink ref="F4" r:id="rId16" xr:uid="{A1FE96D4-72E0-41A1-BDB8-740F4CA2303F}"/>
-    <hyperlink ref="C36" r:id="rId17" display="DP-500" xr:uid="{C3D55664-6108-4C33-A7DE-ED8F181ECB25}"/>
-    <hyperlink ref="C37" r:id="rId18" display="DP-500 GitHub Pages" xr:uid="{4F0E6DC6-6E65-48D0-ACC5-38D4A25E5B4F}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{E2E1C268-32DF-4FE8-B8EA-7546EB861CE9}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{8FFFD907-3751-4A99-89D2-80F6E94446A5}"/>
-    <hyperlink ref="D19" r:id="rId21" xr:uid="{DF8F2ACF-3489-4049-B40D-3E544DF70DB4}"/>
-    <hyperlink ref="D27" r:id="rId22" xr:uid="{5A0C53AB-1076-4988-A75F-61823506BFE8}"/>
-    <hyperlink ref="D22" r:id="rId23" xr:uid="{35318EB3-2BC6-4A87-98B4-F69F107279F8}"/>
-    <hyperlink ref="D26" r:id="rId24" xr:uid="{88B3EDC9-B055-4F18-9113-82E013312A36}"/>
-    <hyperlink ref="D23" r:id="rId25" xr:uid="{E72F0E09-9A34-480F-BBE6-67C7A5B8C35E}"/>
-    <hyperlink ref="C39" r:id="rId26" xr:uid="{C7E17F9D-64FB-43C2-9CAE-F36DFA135ABE}"/>
-    <hyperlink ref="D24" r:id="rId27" xr:uid="{BFB8D6CD-D7EB-4638-B03B-F2D56616DC93}"/>
-    <hyperlink ref="C40" r:id="rId28" xr:uid="{6225148A-162B-4C99-8AD2-299F44DBB151}"/>
-    <hyperlink ref="C42" r:id="rId29" xr:uid="{42BCA078-6981-45C9-A9AA-52FA7F21F70B}"/>
-    <hyperlink ref="C43" r:id="rId30" xr:uid="{F779059D-6C21-4184-AA2C-4D8BBB608E59}"/>
-    <hyperlink ref="D25" r:id="rId31" xr:uid="{9CE2ED4B-3C0D-4AB9-A22C-B1AE11BB3DA9}"/>
-    <hyperlink ref="C32" r:id="rId32" xr:uid="{0C38A5C7-46E8-4B87-B6A8-6E8090B6AED5}"/>
-    <hyperlink ref="C28" r:id="rId33" xr:uid="{3E3E5237-6F3C-4D12-97C7-044E7D807C9B}"/>
-    <hyperlink ref="C29" r:id="rId34" xr:uid="{926DAEA7-DAE2-4EC9-88FB-6BEEE00E7B32}"/>
-    <hyperlink ref="C30" r:id="rId35" xr:uid="{DFDED96E-86C4-4CAF-8065-C6D939E9A3A9}"/>
-    <hyperlink ref="D30" r:id="rId36" xr:uid="{A948431A-0A48-430A-9F52-2525F7E3136B}"/>
+    <hyperlink ref="F4" r:id="rId15" xr:uid="{A1FE96D4-72E0-41A1-BDB8-740F4CA2303F}"/>
+    <hyperlink ref="C39" r:id="rId16" display="DP-500" xr:uid="{C3D55664-6108-4C33-A7DE-ED8F181ECB25}"/>
+    <hyperlink ref="C40" r:id="rId17" display="DP-500 GitHub Pages" xr:uid="{4F0E6DC6-6E65-48D0-ACC5-38D4A25E5B4F}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{E2E1C268-32DF-4FE8-B8EA-7546EB861CE9}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{8FFFD907-3751-4A99-89D2-80F6E94446A5}"/>
+    <hyperlink ref="D19" r:id="rId20" xr:uid="{DF8F2ACF-3489-4049-B40D-3E544DF70DB4}"/>
+    <hyperlink ref="D27" r:id="rId21" xr:uid="{5A0C53AB-1076-4988-A75F-61823506BFE8}"/>
+    <hyperlink ref="D22" r:id="rId22" xr:uid="{35318EB3-2BC6-4A87-98B4-F69F107279F8}"/>
+    <hyperlink ref="D26" r:id="rId23" xr:uid="{88B3EDC9-B055-4F18-9113-82E013312A36}"/>
+    <hyperlink ref="D23" r:id="rId24" xr:uid="{E72F0E09-9A34-480F-BBE6-67C7A5B8C35E}"/>
+    <hyperlink ref="C42" r:id="rId25" xr:uid="{C7E17F9D-64FB-43C2-9CAE-F36DFA135ABE}"/>
+    <hyperlink ref="D24" r:id="rId26" xr:uid="{BFB8D6CD-D7EB-4638-B03B-F2D56616DC93}"/>
+    <hyperlink ref="C43" r:id="rId27" xr:uid="{6225148A-162B-4C99-8AD2-299F44DBB151}"/>
+    <hyperlink ref="C36" r:id="rId28" display="MSLearn Fabric (Git repository)" xr:uid="{42BCA078-6981-45C9-A9AA-52FA7F21F70B}"/>
+    <hyperlink ref="C37" r:id="rId29" display="MSLearn Fabric (GitHub pages)" xr:uid="{F779059D-6C21-4184-AA2C-4D8BBB608E59}"/>
+    <hyperlink ref="D25" r:id="rId30" xr:uid="{9CE2ED4B-3C0D-4AB9-A22C-B1AE11BB3DA9}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{0C38A5C7-46E8-4B87-B6A8-6E8090B6AED5}"/>
+    <hyperlink ref="C28" r:id="rId32" xr:uid="{3E3E5237-6F3C-4D12-97C7-044E7D807C9B}"/>
+    <hyperlink ref="C29" r:id="rId33" xr:uid="{926DAEA7-DAE2-4EC9-88FB-6BEEE00E7B32}"/>
+    <hyperlink ref="C30" r:id="rId34" xr:uid="{DFDED96E-86C4-4CAF-8065-C6D939E9A3A9}"/>
+    <hyperlink ref="D30" r:id="rId35" xr:uid="{A948431A-0A48-430A-9F52-2525F7E3136B}"/>
+    <hyperlink ref="D34" r:id="rId36" display="MSLearn Fabric Lab 11" xr:uid="{9FBBD705-6013-4D77-AD09-1842DC2B83FD}"/>
+    <hyperlink ref="D32" r:id="rId37" display="MSLearn Fabric Lab 08" xr:uid="{D3EAD847-AC38-4315-8FAE-49EE94063CFE}"/>
+    <hyperlink ref="D31" r:id="rId38" display="MSLearn Fabric Lab 07" xr:uid="{FE299C7B-23CE-4859-B74A-1159BB4A0C6E}"/>
+    <hyperlink ref="C5" r:id="rId39" xr:uid="{6B12C89A-6F27-471E-BAB9-D1E4CF650DD9}"/>
+    <hyperlink ref="C6" r:id="rId40" xr:uid="{76091DD2-34DB-446D-8C9A-AED6A99E9378}"/>
+    <hyperlink ref="C7" r:id="rId41" xr:uid="{3E711351-FA6D-45C7-BCCB-288D968C6472}"/>
+    <hyperlink ref="D5" r:id="rId42" xr:uid="{CFB6E839-03CC-4300-B9B6-30BE26FAB401}"/>
+    <hyperlink ref="D6" r:id="rId43" xr:uid="{D5FDB919-A669-4F44-A489-349592E99E0E}"/>
+    <hyperlink ref="D7" r:id="rId44" xr:uid="{36F05FE4-0F59-428E-AD01-5015C9045DD9}"/>
+    <hyperlink ref="C9" r:id="rId45" xr:uid="{6DC2142B-AE8D-4E83-814C-E6B0A493E016}"/>
+    <hyperlink ref="C8" r:id="rId46" xr:uid="{4FBC1594-9CF6-44E0-BC4C-F44537CE1338}"/>
+    <hyperlink ref="C10" r:id="rId47" xr:uid="{47F02446-D3A2-496C-83F5-8EC9841B9FEA}"/>
+    <hyperlink ref="C11" r:id="rId48" xr:uid="{5D47D237-ACF9-4C8A-A943-2F74B9DB141B}"/>
+    <hyperlink ref="C12" r:id="rId49" xr:uid="{33B512AA-4D5B-4375-A419-54F2AA527D2B}"/>
+    <hyperlink ref="C13" r:id="rId50" xr:uid="{4D72CDBF-41DE-43CA-974E-66AA76DD21C1}"/>
+    <hyperlink ref="C14" r:id="rId51" xr:uid="{C13FD4C5-4127-4280-A1EC-B4680B243045}"/>
+    <hyperlink ref="C15" r:id="rId52" xr:uid="{CBD4288C-2F75-450A-8087-A9B37C857F64}"/>
+    <hyperlink ref="C16" r:id="rId53" xr:uid="{420FAADA-4737-444E-8D5C-EDF816CCAEFA}"/>
+    <hyperlink ref="C17" r:id="rId54" xr:uid="{AAC6164A-C978-40C2-88FF-0240AA2D1E94}"/>
+    <hyperlink ref="C18" r:id="rId55" xr:uid="{383ED790-B187-45C0-BABF-81F546331EAF}"/>
+    <hyperlink ref="C19" r:id="rId56" xr:uid="{FE00C948-A8F9-442D-9888-C6BAC4F273A3}"/>
+    <hyperlink ref="C20" r:id="rId57" xr:uid="{ACDB891D-3BD0-4CD1-8666-E55328C81207}"/>
+    <hyperlink ref="C21" r:id="rId58" xr:uid="{71F877C2-34EA-4B4C-A661-86C205B4B25F}"/>
+    <hyperlink ref="C22" r:id="rId59" xr:uid="{C6A94CAF-623F-4F52-9EA1-A2E1571972F3}"/>
+    <hyperlink ref="C24" r:id="rId60" xr:uid="{2911D044-F987-4E3D-9CC9-633AABA1EAC1}"/>
+    <hyperlink ref="C25" r:id="rId61" xr:uid="{0C838253-345A-458D-9496-DA04FA234E3A}"/>
+    <hyperlink ref="C26" r:id="rId62" xr:uid="{3AA55E68-3985-41BD-BAB5-38505CF93C27}"/>
+    <hyperlink ref="C27" r:id="rId63" xr:uid="{AA412A99-F9A3-4847-87CF-A385DA538299}"/>
+    <hyperlink ref="C23" r:id="rId64" xr:uid="{69C830B9-AD87-47BD-A722-7897AD8D44DB}"/>
+    <hyperlink ref="D9" r:id="rId65" xr:uid="{AC3F1369-1888-4932-B0CB-7F06DE1A8C26}"/>
+    <hyperlink ref="D10" r:id="rId66" xr:uid="{1CD076F6-99DB-4172-8686-84E6225C0A22}"/>
+    <hyperlink ref="D11" r:id="rId67" xr:uid="{0D495013-CE0E-466A-9A16-A409EDF5DC23}"/>
+    <hyperlink ref="D12" r:id="rId68" xr:uid="{8088F2CA-713B-4D8E-8F33-37DFAEE1E3FD}"/>
+    <hyperlink ref="D13" r:id="rId69" xr:uid="{05F7AE51-5DED-4469-B356-247731BCAE2D}"/>
+    <hyperlink ref="D14" r:id="rId70" xr:uid="{0FA658C0-4825-4397-A3F8-7A4AC9C3B9AB}"/>
+    <hyperlink ref="D15" r:id="rId71" xr:uid="{453FDCC2-DFBF-4B4E-A9EA-7AA06730F9EF}"/>
+    <hyperlink ref="D16" r:id="rId72" xr:uid="{9F8BF8D8-32DE-4F93-8E09-68650F3B4F51}"/>
+    <hyperlink ref="D17" r:id="rId73" xr:uid="{D18E113E-C873-4A7A-83A9-861E215F6661}"/>
+    <hyperlink ref="D18" r:id="rId74" xr:uid="{514137DA-E816-40D8-839E-FDEE630D1CB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId75"/>
 </worksheet>
 </file>
--- a/Certification.xlsx
+++ b/Certification.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github.com\open-word\DP-600-Fabric-Analytics-Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAC9900-0B83-4F52-AAF7-53655BE22AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D887CAF5-0E77-4208-B518-F10DAEDB4D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{C91A3575-F826-4DBB-9127-8E0D5980857F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2 net" sheetId="2" r:id="rId1"/>
+    <sheet name="1 live" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2 net'!$B$4:$K$34</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="112">
   <si>
     <t>Learning Path</t>
   </si>
@@ -309,6 +313,69 @@
   </si>
   <si>
     <t>Load data into a warehouse</t>
+  </si>
+  <si>
+    <t>Use notebooks to explore data in Macrosoft Fabric</t>
+  </si>
+  <si>
+    <t>Preprocess data with Data Wrangler in Microsoft Fabric</t>
+  </si>
+  <si>
+    <t>Train and track machine learning models with MLflow in Microsoft Fabric</t>
+  </si>
+  <si>
+    <t>Generate and save batch predictions</t>
+  </si>
+  <si>
+    <t>Get started with Eventstream in Real-Time Analytics (RTA)</t>
+  </si>
+  <si>
+    <t>Get started with querying a Kusto database in Microsoft Fabric</t>
+  </si>
+  <si>
+    <t>Fabric Lab 08a</t>
+  </si>
+  <si>
+    <t>Fabric Lab 08b</t>
+  </si>
+  <si>
+    <t>Fabric Lab 08c</t>
+  </si>
+  <si>
+    <t>Fabric Lab 08d</t>
+  </si>
+  <si>
+    <t>Fabric Lab 09</t>
+  </si>
+  <si>
+    <t>Fabric Lab 12</t>
+  </si>
+  <si>
+    <t>Fabric Lab 13</t>
+  </si>
+  <si>
+    <t>Real-time Dashboards</t>
+  </si>
+  <si>
+    <t>[cf Fabric Lab 14] Create a star schema model</t>
+  </si>
+  <si>
+    <t>[cf Fabric Lab 15] Work with model relationships</t>
+  </si>
+  <si>
+    <t>[cf Fabric Lab 16] Use tools to optimize Power BI performance</t>
+  </si>
+  <si>
+    <t>[cf Fabric Lab 17] Enforce model security</t>
+  </si>
+  <si>
+    <t>TO DO</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Learn Live</t>
   </si>
 </sst>
 </file>
@@ -479,7 +546,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -515,6 +582,8 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -830,10 +899,1162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F180EED-F52E-41D2-8301-1E47E800243C}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="B2:K43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+      <c r="C34" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B4:K34" xr:uid="{3F180EED-F52E-41D2-8301-1E47E800243C}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val="*[DUP]*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{4BF04D53-5D6A-4C00-85EE-51A4DB2B216B}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{D822AA2C-BA0B-41C9-8934-FF810D4F97E9}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{99DB277A-B711-4D96-9CF5-CB3E8261E797}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{A8B43B82-65EF-4B9E-AF0C-45A7D3E32C1C}"/>
+    <hyperlink ref="B23" r:id="rId5" xr:uid="{4EC634D8-4C53-44E7-AC71-0DD46CA7559F}"/>
+    <hyperlink ref="B28" r:id="rId6" display="Manage the anlytics development lifecycle" xr:uid="{762BFB9C-3B7A-4D71-A710-F1998EF285AD}"/>
+    <hyperlink ref="B19" r:id="rId7" xr:uid="{4A5B08F0-8639-4FA7-A33D-5E8EF6262971}"/>
+    <hyperlink ref="G4" r:id="rId8" xr:uid="{01F1F902-C688-4F61-B43C-D008B3A0A049}"/>
+    <hyperlink ref="H4" r:id="rId9" xr:uid="{450CA52C-2C97-4A4C-9C74-DCF95614488B}"/>
+    <hyperlink ref="I4" r:id="rId10" xr:uid="{D0FD2EA8-3236-423E-B6D8-AB513DEF044D}"/>
+    <hyperlink ref="J4" r:id="rId11" xr:uid="{E1574C61-349B-4C00-8575-A7CCEEA42946}"/>
+    <hyperlink ref="C31" r:id="rId12" xr:uid="{6B291987-9884-4185-B319-B6FB18CB457A}"/>
+    <hyperlink ref="C34" r:id="rId13" xr:uid="{A8D24BDF-833F-4469-A0DE-46998767DB2D}"/>
+    <hyperlink ref="C33" r:id="rId14" xr:uid="{41E48A40-849A-4C30-8A2D-897D0A524339}"/>
+    <hyperlink ref="F4" r:id="rId15" xr:uid="{D02EC61B-2F2D-4459-AB2B-49119F794590}"/>
+    <hyperlink ref="C39" r:id="rId16" display="DP-500" xr:uid="{3D7CBAB1-C75B-44B0-BD89-7AF01E87AF5A}"/>
+    <hyperlink ref="C40" r:id="rId17" display="DP-500 GitHub Pages" xr:uid="{21BF1DCF-8CE6-4CA7-9C12-135DE4FEC051}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{D6D17FC9-F347-4B6C-8E92-CB09F4FE5C96}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{6525D172-C793-403D-B8B7-23014CAE26CC}"/>
+    <hyperlink ref="D19" r:id="rId20" xr:uid="{FDCE309E-3792-45C5-B57A-17E2E6DA9E1F}"/>
+    <hyperlink ref="D27" r:id="rId21" xr:uid="{BACA2633-2E1B-46EC-A030-FC3D229BC75B}"/>
+    <hyperlink ref="D22" r:id="rId22" xr:uid="{E31207A9-17C6-4E79-B96F-E6A1B4BA00EA}"/>
+    <hyperlink ref="D26" r:id="rId23" xr:uid="{6DE1ED5A-8BB3-4AE4-B682-413E686081FE}"/>
+    <hyperlink ref="D23" r:id="rId24" xr:uid="{B0BE5936-59CE-4DBA-9AE8-F18F35B064B8}"/>
+    <hyperlink ref="C42" r:id="rId25" xr:uid="{DF7E062D-019A-47C5-AB25-6260FCCC6A63}"/>
+    <hyperlink ref="D24" r:id="rId26" xr:uid="{99C292EA-7AD5-4A3E-A550-D8187BAEA3D6}"/>
+    <hyperlink ref="C43" r:id="rId27" xr:uid="{A72DDC3C-9EA0-4A7F-9732-8C89E316A271}"/>
+    <hyperlink ref="C36" r:id="rId28" display="MSLearn Fabric (Git repository)" xr:uid="{A833ADE9-1865-4839-9550-92A13D02D371}"/>
+    <hyperlink ref="C37" r:id="rId29" display="MSLearn Fabric (GitHub pages)" xr:uid="{74455561-4629-4F7B-BBD7-992E1A3357B9}"/>
+    <hyperlink ref="D25" r:id="rId30" xr:uid="{9DD2158C-1587-47DF-93C6-B5EB0383418A}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{5B754AE6-42F5-41D9-9726-8CEF594C1E76}"/>
+    <hyperlink ref="C28" r:id="rId32" xr:uid="{16C6532E-B6ED-4328-A562-1311DC8F60E1}"/>
+    <hyperlink ref="C29" r:id="rId33" xr:uid="{9676BAF2-0584-4B91-8613-80C373CF0317}"/>
+    <hyperlink ref="C30" r:id="rId34" xr:uid="{59E137D2-554B-4ACC-9196-48BB715B95EE}"/>
+    <hyperlink ref="D30" r:id="rId35" xr:uid="{5297ACFF-05C6-412C-AA85-4A8958E4A7B8}"/>
+    <hyperlink ref="D34" r:id="rId36" display="MSLearn Fabric Lab 11" xr:uid="{00BAA344-6D13-4FDE-BFB9-EC90B9B96DED}"/>
+    <hyperlink ref="D32" r:id="rId37" display="MSLearn Fabric Lab 08" xr:uid="{5FA4D18E-DF3B-4A2F-B952-3FC6ACD0AEAB}"/>
+    <hyperlink ref="D31" r:id="rId38" display="MSLearn Fabric Lab 07" xr:uid="{2E8F3D24-3B3A-425F-9645-ECF71121A7DE}"/>
+    <hyperlink ref="C5" r:id="rId39" xr:uid="{194EED0C-056C-42D4-B8E4-F4A6083E113E}"/>
+    <hyperlink ref="C6" r:id="rId40" xr:uid="{56F6742E-0CE9-4B65-9A42-1F8D4E95FE8E}"/>
+    <hyperlink ref="C7" r:id="rId41" xr:uid="{72D17493-86CB-4A93-A798-0910A28135BB}"/>
+    <hyperlink ref="D5" r:id="rId42" xr:uid="{59A06FA8-B3BB-401D-939C-53B3ED47F126}"/>
+    <hyperlink ref="D6" r:id="rId43" xr:uid="{B8B4A801-C448-4A27-8699-30C4D667ACC8}"/>
+    <hyperlink ref="D7" r:id="rId44" xr:uid="{DE01BAEE-FED8-48A0-B54F-2F85E63B017D}"/>
+    <hyperlink ref="C9" r:id="rId45" xr:uid="{0E6CA8E4-DC38-461A-8B54-BE2FBE1E447E}"/>
+    <hyperlink ref="C8" r:id="rId46" xr:uid="{239138CF-397E-4D56-ADD2-5D7EC8F30C03}"/>
+    <hyperlink ref="C10" r:id="rId47" xr:uid="{C8F3FC7F-B445-4B82-AABE-6CDBD8CA0610}"/>
+    <hyperlink ref="C11" r:id="rId48" xr:uid="{0D02A90C-FABF-479C-A790-2B6E5F591A92}"/>
+    <hyperlink ref="C12" r:id="rId49" xr:uid="{9B95573C-71A5-4C3E-B2D4-299E9A264A57}"/>
+    <hyperlink ref="C13" r:id="rId50" xr:uid="{F1F12421-020C-4008-8A6A-9B161795DF31}"/>
+    <hyperlink ref="C14" r:id="rId51" xr:uid="{DB5F6FE7-7C3B-449C-82CF-EF0F183B2B0C}"/>
+    <hyperlink ref="C15" r:id="rId52" xr:uid="{C85FD514-9BE3-49A4-AD39-2581F8D8EB73}"/>
+    <hyperlink ref="C16" r:id="rId53" xr:uid="{DCBEF476-45F6-4396-A55A-81D1C50E3E49}"/>
+    <hyperlink ref="C17" r:id="rId54" xr:uid="{BF3898EB-E911-4BB0-992E-8B4A2465F948}"/>
+    <hyperlink ref="C18" r:id="rId55" xr:uid="{E6EDA63F-40B2-44C5-A50D-16209A926B59}"/>
+    <hyperlink ref="C19" r:id="rId56" xr:uid="{C1F4C6B8-9832-4B66-B618-B2BA32561C76}"/>
+    <hyperlink ref="C20" r:id="rId57" xr:uid="{9C5C90D3-2FEB-40C6-8DED-8AF706B59ED9}"/>
+    <hyperlink ref="C21" r:id="rId58" xr:uid="{5B382287-9EBE-4947-9871-AE9993B629AD}"/>
+    <hyperlink ref="C22" r:id="rId59" xr:uid="{20B24F39-25E3-436B-A493-62733F288C5D}"/>
+    <hyperlink ref="C24" r:id="rId60" xr:uid="{1C720DEB-3CDF-4268-A913-98D9CECF3E6B}"/>
+    <hyperlink ref="C25" r:id="rId61" xr:uid="{7E632785-BFD2-41BA-8F21-13D3597D29C2}"/>
+    <hyperlink ref="C26" r:id="rId62" xr:uid="{FD154452-38FC-40AD-BC34-C6A6AD763BCD}"/>
+    <hyperlink ref="C27" r:id="rId63" xr:uid="{C0780E69-40AB-4508-8228-124C61D89F82}"/>
+    <hyperlink ref="C23" r:id="rId64" xr:uid="{A9A2957E-D99B-41E3-8212-64E4F5B5F73F}"/>
+    <hyperlink ref="D9" r:id="rId65" xr:uid="{0DE357CF-1609-470D-AA99-5DB0B292398C}"/>
+    <hyperlink ref="D10" r:id="rId66" xr:uid="{29CBDCA7-F766-4E74-A7F8-B10E4A167B3C}"/>
+    <hyperlink ref="D11" r:id="rId67" xr:uid="{81012687-1AA3-4DD8-AEC3-355EF91B4C10}"/>
+    <hyperlink ref="D12" r:id="rId68" xr:uid="{D68DEA0F-4740-4B4B-9824-3382ACFA287F}"/>
+    <hyperlink ref="D13" r:id="rId69" xr:uid="{43843305-22EF-4A88-96BA-ADAB6E36488E}"/>
+    <hyperlink ref="D14" r:id="rId70" xr:uid="{D11BC54E-5809-4CFF-9DB1-E79C430CFE45}"/>
+    <hyperlink ref="D15" r:id="rId71" xr:uid="{85E9E75C-0D7C-4A14-8BAB-3E4282001D84}"/>
+    <hyperlink ref="D16" r:id="rId72" xr:uid="{3AA2ACF9-071B-40FD-ADA7-E5BFE6974B15}"/>
+    <hyperlink ref="D17" r:id="rId73" xr:uid="{A20AF6BF-DF5A-41F4-AC10-F0F04C6BFC03}"/>
+    <hyperlink ref="D18" r:id="rId74" xr:uid="{DD08DC7F-0591-48A5-A6D0-C06F6E7EEEB0}"/>
+    <hyperlink ref="K5" r:id="rId75" xr:uid="{6F9E5C26-8A97-4E93-9CB4-EF80B6EF11FE}"/>
+    <hyperlink ref="K7" r:id="rId76" xr:uid="{F2A84E33-E84D-4DD0-9626-5E3F2BB758CA}"/>
+    <hyperlink ref="K31" r:id="rId77" xr:uid="{2111E2F7-9B2C-414C-A004-571CEE18CA6C}"/>
+    <hyperlink ref="K10" r:id="rId78" xr:uid="{6FE93CA3-CD97-43E6-93A3-5AC135D9B844}"/>
+    <hyperlink ref="K11" r:id="rId79" xr:uid="{F34FD9F6-1274-4312-B4AF-748230F070D3}"/>
+    <hyperlink ref="K33" r:id="rId80" xr:uid="{E7D1FF3E-56EC-4F77-B8F4-991A4C58E718}"/>
+    <hyperlink ref="K32" r:id="rId81" xr:uid="{98429706-550E-4099-8091-C34AF75A02BD}"/>
+    <hyperlink ref="K15" r:id="rId82" xr:uid="{DC45D908-5BE3-4615-9007-47B4C73E1D1F}"/>
+    <hyperlink ref="K8" r:id="rId83" xr:uid="{DDDE61A0-B00D-4825-A108-6BD901BE9948}"/>
+    <hyperlink ref="K4" r:id="rId84" xr:uid="{7A69C6A0-BEF6-44B2-8072-0D5669F6838B}"/>
+    <hyperlink ref="K12" r:id="rId85" xr:uid="{CAF6D0F6-D6A4-4B73-BD2B-F80785B04D99}"/>
+    <hyperlink ref="K13" r:id="rId86" xr:uid="{977C48C1-72B8-4F98-A3CC-BAC2FEE2E9D3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId87"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A18723-27DE-4F05-A927-2EE537C61CF1}">
   <dimension ref="B2:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1669,7 +2890,7 @@
         <v>43</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>41</v>

--- a/Certification.xlsx
+++ b/Certification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github.com\open-word\DP-600-Fabric-Analytics-Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D887CAF5-0E77-4208-B518-F10DAEDB4D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7EADC5-3B63-4E2D-930C-BB3F649C3057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{C91A3575-F826-4DBB-9127-8E0D5980857F}"/>
   </bookViews>
@@ -903,8 +903,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,22 +1398,22 @@
       <c r="E19" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="8" t="s">
+      <c r="F19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1428,22 +1428,22 @@
       <c r="E20" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="5" t="s">
+      <c r="F20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1458,22 +1458,22 @@
       <c r="E21" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="5" t="s">
+      <c r="F21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1488,22 +1488,22 @@
       <c r="E22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22" s="6" t="s">
+      <c r="F22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="15" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Certification.xlsx
+++ b/Certification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github.com\open-word\DP-600-Fabric-Analytics-Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7EADC5-3B63-4E2D-930C-BB3F649C3057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F784A69-FD85-4E15-8C8A-A1185B889F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{C91A3575-F826-4DBB-9127-8E0D5980857F}"/>
+    <workbookView xWindow="28680" yWindow="1680" windowWidth="29040" windowHeight="16440" xr2:uid="{C91A3575-F826-4DBB-9127-8E0D5980857F}"/>
   </bookViews>
   <sheets>
     <sheet name="2 net" sheetId="2" r:id="rId1"/>
@@ -231,15 +231,9 @@
     <t>Manage the analytics development lifecycle</t>
   </si>
   <si>
-    <t>PL-300 Lab 04</t>
-  </si>
-  <si>
     <t>PL-300 Power BI Data Analyst (Git repository)</t>
   </si>
   <si>
-    <t>Create DAX Calculations in Power BI Desktop</t>
-  </si>
-  <si>
     <t>PL-300 Power BI Data Analyst (GitHub pages)</t>
   </si>
   <si>
@@ -376,6 +370,12 @@
   </si>
   <si>
     <t>Learn Live</t>
+  </si>
+  <si>
+    <t>Create Advanced DAX Calculations in Power BI Desktop</t>
+  </si>
+  <si>
+    <t>PL-300 Lab 05</t>
   </si>
 </sst>
 </file>
@@ -900,12 +900,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F180EED-F52E-41D2-8301-1E47E800243C}">
-  <sheetPr filterMode="1"/>
   <dimension ref="B2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -956,7 +953,7 @@
         <v>50</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -967,10 +964,10 @@
         <v>26</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>41</v>
@@ -988,7 +985,7 @@
         <v>41</v>
       </c>
       <c r="K5" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -997,7 +994,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
@@ -1027,7 +1024,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>34</v>
@@ -1048,7 +1045,7 @@
         <v>41</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -1080,7 +1077,7 @@
         <v>41</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -1089,10 +1086,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>41</v>
@@ -1119,7 +1116,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>32</v>
@@ -1140,7 +1137,7 @@
         <v>41</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -1149,7 +1146,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>33</v>
@@ -1170,19 +1167,19 @@
         <v>41</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="26" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>41</v>
@@ -1200,16 +1197,16 @@
         <v>41</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="26" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>34</v>
@@ -1230,7 +1227,7 @@
         <v>41</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -1239,7 +1236,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>35</v>
@@ -1271,7 +1268,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>36</v>
@@ -1292,7 +1289,7 @@
         <v>41</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -1301,10 +1298,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>41</v>
@@ -1331,7 +1328,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>9</v>
@@ -1361,7 +1358,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>37</v>
@@ -1396,7 +1393,7 @@
         <v>52</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>41</v>
@@ -1426,7 +1423,7 @@
         <v>51</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>41</v>
@@ -1456,7 +1453,7 @@
         <v>56</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>41</v>
@@ -1486,7 +1483,7 @@
         <v>58</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>41</v>
@@ -1507,7 +1504,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>5</v>
       </c>
@@ -1520,22 +1517,22 @@
       <c r="E23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="8" t="s">
+      <c r="F23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1545,27 +1542,27 @@
         <v>18</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1575,31 +1572,31 @@
         <v>19</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="26" t="s">
         <v>31</v>
@@ -1610,26 +1607,26 @@
       <c r="E26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="31" t="s">
         <v>57</v>
@@ -1640,27 +1637,27 @@
       <c r="E27" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" s="6" t="s">
+      <c r="F27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -1672,22 +1669,22 @@
       <c r="E28" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28" s="8" t="s">
+      <c r="F28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1702,22 +1699,22 @@
       <c r="E29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K29" s="5" t="s">
+      <c r="F29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1727,27 +1724,27 @@
         <v>23</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="15" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1759,7 +1756,7 @@
         <v>38</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>38</v>
@@ -1774,13 +1771,13 @@
         <v>43</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -1789,10 +1786,10 @@
         <v>39</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>43</v>
@@ -1804,13 +1801,13 @@
         <v>43</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -1829,16 +1826,16 @@
         <v>43</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
@@ -1847,10 +1844,10 @@
         <v>42</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>43</v>
@@ -1862,10 +1859,10 @@
         <v>43</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>43</v>
@@ -1873,32 +1870,32 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
@@ -1906,10 +1903,10 @@
         <v>54</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
@@ -1917,44 +1914,38 @@
         <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:K34" xr:uid="{3F180EED-F52E-41D2-8301-1E47E800243C}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val="*[DUP]*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B4:K34" xr:uid="{3F180EED-F52E-41D2-8301-1E47E800243C}"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{4BF04D53-5D6A-4C00-85EE-51A4DB2B216B}"/>
     <hyperlink ref="B15" r:id="rId2" xr:uid="{D822AA2C-BA0B-41C9-8934-FF810D4F97E9}"/>
@@ -2053,7 +2044,7 @@
   <dimension ref="B2:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,10 +2103,10 @@
         <v>26</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>41</v>
@@ -2139,7 +2130,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>16</v>
@@ -2166,7 +2157,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>34</v>
@@ -2222,10 +2213,10 @@
         <v>12</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>41</v>
@@ -2249,7 +2240,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>32</v>
@@ -2276,7 +2267,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>33</v>
@@ -2303,10 +2294,10 @@
         <v>29</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>41</v>
@@ -2330,7 +2321,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>34</v>
@@ -2357,7 +2348,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>35</v>
@@ -2386,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>36</v>
@@ -2413,10 +2404,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>41</v>
@@ -2440,7 +2431,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>9</v>
@@ -2467,7 +2458,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>37</v>
@@ -2633,10 +2624,10 @@
         <v>18</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>41</v>
@@ -2660,7 +2651,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>19</v>
@@ -2797,10 +2788,10 @@
         <v>23</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>41</v>
@@ -2826,7 +2817,7 @@
         <v>38</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>38</v>
@@ -2853,10 +2844,10 @@
         <v>39</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>43</v>
@@ -2890,7 +2881,7 @@
         <v>43</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>41</v>
@@ -2905,10 +2896,10 @@
         <v>42</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>43</v>
@@ -2928,12 +2919,12 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
@@ -2948,12 +2939,12 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2983,55 +2974,55 @@
     <hyperlink ref="D26" r:id="rId23" xr:uid="{88B3EDC9-B055-4F18-9113-82E013312A36}"/>
     <hyperlink ref="D23" r:id="rId24" xr:uid="{E72F0E09-9A34-480F-BBE6-67C7A5B8C35E}"/>
     <hyperlink ref="C42" r:id="rId25" xr:uid="{C7E17F9D-64FB-43C2-9CAE-F36DFA135ABE}"/>
-    <hyperlink ref="D24" r:id="rId26" xr:uid="{BFB8D6CD-D7EB-4638-B03B-F2D56616DC93}"/>
-    <hyperlink ref="C43" r:id="rId27" xr:uid="{6225148A-162B-4C99-8AD2-299F44DBB151}"/>
-    <hyperlink ref="C36" r:id="rId28" display="MSLearn Fabric (Git repository)" xr:uid="{42BCA078-6981-45C9-A9AA-52FA7F21F70B}"/>
-    <hyperlink ref="C37" r:id="rId29" display="MSLearn Fabric (GitHub pages)" xr:uid="{F779059D-6C21-4184-AA2C-4D8BBB608E59}"/>
-    <hyperlink ref="D25" r:id="rId30" xr:uid="{9CE2ED4B-3C0D-4AB9-A22C-B1AE11BB3DA9}"/>
-    <hyperlink ref="C32" r:id="rId31" xr:uid="{0C38A5C7-46E8-4B87-B6A8-6E8090B6AED5}"/>
-    <hyperlink ref="C28" r:id="rId32" xr:uid="{3E3E5237-6F3C-4D12-97C7-044E7D807C9B}"/>
-    <hyperlink ref="C29" r:id="rId33" xr:uid="{926DAEA7-DAE2-4EC9-88FB-6BEEE00E7B32}"/>
-    <hyperlink ref="C30" r:id="rId34" xr:uid="{DFDED96E-86C4-4CAF-8065-C6D939E9A3A9}"/>
-    <hyperlink ref="D30" r:id="rId35" xr:uid="{A948431A-0A48-430A-9F52-2525F7E3136B}"/>
-    <hyperlink ref="D34" r:id="rId36" display="MSLearn Fabric Lab 11" xr:uid="{9FBBD705-6013-4D77-AD09-1842DC2B83FD}"/>
-    <hyperlink ref="D32" r:id="rId37" display="MSLearn Fabric Lab 08" xr:uid="{D3EAD847-AC38-4315-8FAE-49EE94063CFE}"/>
-    <hyperlink ref="D31" r:id="rId38" display="MSLearn Fabric Lab 07" xr:uid="{FE299C7B-23CE-4859-B74A-1159BB4A0C6E}"/>
-    <hyperlink ref="C5" r:id="rId39" xr:uid="{6B12C89A-6F27-471E-BAB9-D1E4CF650DD9}"/>
-    <hyperlink ref="C6" r:id="rId40" xr:uid="{76091DD2-34DB-446D-8C9A-AED6A99E9378}"/>
-    <hyperlink ref="C7" r:id="rId41" xr:uid="{3E711351-FA6D-45C7-BCCB-288D968C6472}"/>
-    <hyperlink ref="D5" r:id="rId42" xr:uid="{CFB6E839-03CC-4300-B9B6-30BE26FAB401}"/>
-    <hyperlink ref="D6" r:id="rId43" xr:uid="{D5FDB919-A669-4F44-A489-349592E99E0E}"/>
-    <hyperlink ref="D7" r:id="rId44" xr:uid="{36F05FE4-0F59-428E-AD01-5015C9045DD9}"/>
-    <hyperlink ref="C9" r:id="rId45" xr:uid="{6DC2142B-AE8D-4E83-814C-E6B0A493E016}"/>
-    <hyperlink ref="C8" r:id="rId46" xr:uid="{4FBC1594-9CF6-44E0-BC4C-F44537CE1338}"/>
-    <hyperlink ref="C10" r:id="rId47" xr:uid="{47F02446-D3A2-496C-83F5-8EC9841B9FEA}"/>
-    <hyperlink ref="C11" r:id="rId48" xr:uid="{5D47D237-ACF9-4C8A-A943-2F74B9DB141B}"/>
-    <hyperlink ref="C12" r:id="rId49" xr:uid="{33B512AA-4D5B-4375-A419-54F2AA527D2B}"/>
-    <hyperlink ref="C13" r:id="rId50" xr:uid="{4D72CDBF-41DE-43CA-974E-66AA76DD21C1}"/>
-    <hyperlink ref="C14" r:id="rId51" xr:uid="{C13FD4C5-4127-4280-A1EC-B4680B243045}"/>
-    <hyperlink ref="C15" r:id="rId52" xr:uid="{CBD4288C-2F75-450A-8087-A9B37C857F64}"/>
-    <hyperlink ref="C16" r:id="rId53" xr:uid="{420FAADA-4737-444E-8D5C-EDF816CCAEFA}"/>
-    <hyperlink ref="C17" r:id="rId54" xr:uid="{AAC6164A-C978-40C2-88FF-0240AA2D1E94}"/>
-    <hyperlink ref="C18" r:id="rId55" xr:uid="{383ED790-B187-45C0-BABF-81F546331EAF}"/>
-    <hyperlink ref="C19" r:id="rId56" xr:uid="{FE00C948-A8F9-442D-9888-C6BAC4F273A3}"/>
-    <hyperlink ref="C20" r:id="rId57" xr:uid="{ACDB891D-3BD0-4CD1-8666-E55328C81207}"/>
-    <hyperlink ref="C21" r:id="rId58" xr:uid="{71F877C2-34EA-4B4C-A661-86C205B4B25F}"/>
-    <hyperlink ref="C22" r:id="rId59" xr:uid="{C6A94CAF-623F-4F52-9EA1-A2E1571972F3}"/>
-    <hyperlink ref="C24" r:id="rId60" xr:uid="{2911D044-F987-4E3D-9CC9-633AABA1EAC1}"/>
-    <hyperlink ref="C25" r:id="rId61" xr:uid="{0C838253-345A-458D-9496-DA04FA234E3A}"/>
-    <hyperlink ref="C26" r:id="rId62" xr:uid="{3AA55E68-3985-41BD-BAB5-38505CF93C27}"/>
-    <hyperlink ref="C27" r:id="rId63" xr:uid="{AA412A99-F9A3-4847-87CF-A385DA538299}"/>
-    <hyperlink ref="C23" r:id="rId64" xr:uid="{69C830B9-AD87-47BD-A722-7897AD8D44DB}"/>
-    <hyperlink ref="D9" r:id="rId65" xr:uid="{AC3F1369-1888-4932-B0CB-7F06DE1A8C26}"/>
-    <hyperlink ref="D10" r:id="rId66" xr:uid="{1CD076F6-99DB-4172-8686-84E6225C0A22}"/>
-    <hyperlink ref="D11" r:id="rId67" xr:uid="{0D495013-CE0E-466A-9A16-A409EDF5DC23}"/>
-    <hyperlink ref="D12" r:id="rId68" xr:uid="{8088F2CA-713B-4D8E-8F33-37DFAEE1E3FD}"/>
-    <hyperlink ref="D13" r:id="rId69" xr:uid="{05F7AE51-5DED-4469-B356-247731BCAE2D}"/>
-    <hyperlink ref="D14" r:id="rId70" xr:uid="{0FA658C0-4825-4397-A3F8-7A4AC9C3B9AB}"/>
-    <hyperlink ref="D15" r:id="rId71" xr:uid="{453FDCC2-DFBF-4B4E-A9EA-7AA06730F9EF}"/>
-    <hyperlink ref="D16" r:id="rId72" xr:uid="{9F8BF8D8-32DE-4F93-8E09-68650F3B4F51}"/>
-    <hyperlink ref="D17" r:id="rId73" xr:uid="{D18E113E-C873-4A7A-83A9-861E215F6661}"/>
-    <hyperlink ref="D18" r:id="rId74" xr:uid="{514137DA-E816-40D8-839E-FDEE630D1CB4}"/>
+    <hyperlink ref="C43" r:id="rId26" xr:uid="{6225148A-162B-4C99-8AD2-299F44DBB151}"/>
+    <hyperlink ref="C36" r:id="rId27" display="MSLearn Fabric (Git repository)" xr:uid="{42BCA078-6981-45C9-A9AA-52FA7F21F70B}"/>
+    <hyperlink ref="C37" r:id="rId28" display="MSLearn Fabric (GitHub pages)" xr:uid="{F779059D-6C21-4184-AA2C-4D8BBB608E59}"/>
+    <hyperlink ref="D25" r:id="rId29" xr:uid="{9CE2ED4B-3C0D-4AB9-A22C-B1AE11BB3DA9}"/>
+    <hyperlink ref="C32" r:id="rId30" xr:uid="{0C38A5C7-46E8-4B87-B6A8-6E8090B6AED5}"/>
+    <hyperlink ref="C28" r:id="rId31" xr:uid="{3E3E5237-6F3C-4D12-97C7-044E7D807C9B}"/>
+    <hyperlink ref="C29" r:id="rId32" xr:uid="{926DAEA7-DAE2-4EC9-88FB-6BEEE00E7B32}"/>
+    <hyperlink ref="C30" r:id="rId33" xr:uid="{DFDED96E-86C4-4CAF-8065-C6D939E9A3A9}"/>
+    <hyperlink ref="D30" r:id="rId34" xr:uid="{A948431A-0A48-430A-9F52-2525F7E3136B}"/>
+    <hyperlink ref="D34" r:id="rId35" display="MSLearn Fabric Lab 11" xr:uid="{9FBBD705-6013-4D77-AD09-1842DC2B83FD}"/>
+    <hyperlink ref="D32" r:id="rId36" display="MSLearn Fabric Lab 08" xr:uid="{D3EAD847-AC38-4315-8FAE-49EE94063CFE}"/>
+    <hyperlink ref="D31" r:id="rId37" display="MSLearn Fabric Lab 07" xr:uid="{FE299C7B-23CE-4859-B74A-1159BB4A0C6E}"/>
+    <hyperlink ref="C5" r:id="rId38" xr:uid="{6B12C89A-6F27-471E-BAB9-D1E4CF650DD9}"/>
+    <hyperlink ref="C6" r:id="rId39" xr:uid="{76091DD2-34DB-446D-8C9A-AED6A99E9378}"/>
+    <hyperlink ref="C7" r:id="rId40" xr:uid="{3E711351-FA6D-45C7-BCCB-288D968C6472}"/>
+    <hyperlink ref="D5" r:id="rId41" xr:uid="{CFB6E839-03CC-4300-B9B6-30BE26FAB401}"/>
+    <hyperlink ref="D6" r:id="rId42" xr:uid="{D5FDB919-A669-4F44-A489-349592E99E0E}"/>
+    <hyperlink ref="D7" r:id="rId43" xr:uid="{36F05FE4-0F59-428E-AD01-5015C9045DD9}"/>
+    <hyperlink ref="C9" r:id="rId44" xr:uid="{6DC2142B-AE8D-4E83-814C-E6B0A493E016}"/>
+    <hyperlink ref="C8" r:id="rId45" xr:uid="{4FBC1594-9CF6-44E0-BC4C-F44537CE1338}"/>
+    <hyperlink ref="C10" r:id="rId46" xr:uid="{47F02446-D3A2-496C-83F5-8EC9841B9FEA}"/>
+    <hyperlink ref="C11" r:id="rId47" xr:uid="{5D47D237-ACF9-4C8A-A943-2F74B9DB141B}"/>
+    <hyperlink ref="C12" r:id="rId48" xr:uid="{33B512AA-4D5B-4375-A419-54F2AA527D2B}"/>
+    <hyperlink ref="C13" r:id="rId49" xr:uid="{4D72CDBF-41DE-43CA-974E-66AA76DD21C1}"/>
+    <hyperlink ref="C14" r:id="rId50" xr:uid="{C13FD4C5-4127-4280-A1EC-B4680B243045}"/>
+    <hyperlink ref="C15" r:id="rId51" xr:uid="{CBD4288C-2F75-450A-8087-A9B37C857F64}"/>
+    <hyperlink ref="C16" r:id="rId52" xr:uid="{420FAADA-4737-444E-8D5C-EDF816CCAEFA}"/>
+    <hyperlink ref="C17" r:id="rId53" xr:uid="{AAC6164A-C978-40C2-88FF-0240AA2D1E94}"/>
+    <hyperlink ref="C18" r:id="rId54" xr:uid="{383ED790-B187-45C0-BABF-81F546331EAF}"/>
+    <hyperlink ref="C19" r:id="rId55" xr:uid="{FE00C948-A8F9-442D-9888-C6BAC4F273A3}"/>
+    <hyperlink ref="C20" r:id="rId56" xr:uid="{ACDB891D-3BD0-4CD1-8666-E55328C81207}"/>
+    <hyperlink ref="C21" r:id="rId57" xr:uid="{71F877C2-34EA-4B4C-A661-86C205B4B25F}"/>
+    <hyperlink ref="C22" r:id="rId58" xr:uid="{C6A94CAF-623F-4F52-9EA1-A2E1571972F3}"/>
+    <hyperlink ref="C24" r:id="rId59" xr:uid="{2911D044-F987-4E3D-9CC9-633AABA1EAC1}"/>
+    <hyperlink ref="C25" r:id="rId60" xr:uid="{0C838253-345A-458D-9496-DA04FA234E3A}"/>
+    <hyperlink ref="C26" r:id="rId61" xr:uid="{3AA55E68-3985-41BD-BAB5-38505CF93C27}"/>
+    <hyperlink ref="C27" r:id="rId62" xr:uid="{AA412A99-F9A3-4847-87CF-A385DA538299}"/>
+    <hyperlink ref="C23" r:id="rId63" xr:uid="{69C830B9-AD87-47BD-A722-7897AD8D44DB}"/>
+    <hyperlink ref="D9" r:id="rId64" xr:uid="{AC3F1369-1888-4932-B0CB-7F06DE1A8C26}"/>
+    <hyperlink ref="D10" r:id="rId65" xr:uid="{1CD076F6-99DB-4172-8686-84E6225C0A22}"/>
+    <hyperlink ref="D11" r:id="rId66" xr:uid="{0D495013-CE0E-466A-9A16-A409EDF5DC23}"/>
+    <hyperlink ref="D12" r:id="rId67" xr:uid="{8088F2CA-713B-4D8E-8F33-37DFAEE1E3FD}"/>
+    <hyperlink ref="D13" r:id="rId68" xr:uid="{05F7AE51-5DED-4469-B356-247731BCAE2D}"/>
+    <hyperlink ref="D14" r:id="rId69" xr:uid="{0FA658C0-4825-4397-A3F8-7A4AC9C3B9AB}"/>
+    <hyperlink ref="D15" r:id="rId70" xr:uid="{453FDCC2-DFBF-4B4E-A9EA-7AA06730F9EF}"/>
+    <hyperlink ref="D16" r:id="rId71" xr:uid="{9F8BF8D8-32DE-4F93-8E09-68650F3B4F51}"/>
+    <hyperlink ref="D17" r:id="rId72" xr:uid="{D18E113E-C873-4A7A-83A9-861E215F6661}"/>
+    <hyperlink ref="D18" r:id="rId73" xr:uid="{514137DA-E816-40D8-839E-FDEE630D1CB4}"/>
+    <hyperlink ref="D24" r:id="rId74" xr:uid="{A12B9D94-6BFF-4A23-A441-278D594B9A39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId75"/>

--- a/Certification.xlsx
+++ b/Certification.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github.com\open-word\DP-600-Fabric-Analytics-Engineer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F784A69-FD85-4E15-8C8A-A1185B889F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA26116-6665-4BCE-92E7-B9CB98F6793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1680" windowWidth="29040" windowHeight="16440" xr2:uid="{C91A3575-F826-4DBB-9127-8E0D5980857F}"/>
   </bookViews>
   <sheets>
-    <sheet name="2 net" sheetId="2" r:id="rId1"/>
-    <sheet name="1 live" sheetId="1" r:id="rId2"/>
+    <sheet name=".co.uk" sheetId="3" r:id="rId1"/>
+    <sheet name=".net" sheetId="2" r:id="rId2"/>
+    <sheet name="live.co.uk" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2 net'!$B$4:$K$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'.co.uk'!$B$4:$K$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'.net'!$B$4:$J$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="120">
   <si>
     <t>Learning Path</t>
   </si>
@@ -366,9 +368,6 @@
     <t>TO DO</t>
   </si>
   <si>
-    <t>Video</t>
-  </si>
-  <si>
     <t>Learn Live</t>
   </si>
   <si>
@@ -376,16 +375,40 @@
   </si>
   <si>
     <t>PL-300 Lab 05</t>
+  </si>
+  <si>
+    <t>Choose a Power BI model framework</t>
+  </si>
+  <si>
+    <t>Referenced in "Understand scalability in Power BI"</t>
+  </si>
+  <si>
+    <t>Ep3: Work with Delta Lake tables in Microsoft Fabric</t>
+  </si>
+  <si>
+    <t>Ep2: Use Apache Spark in Microsoft Fabric</t>
+  </si>
+  <si>
+    <t>Ep1: Get started with end-to-end analytics and lakehouses in Microsoft Fabric</t>
+  </si>
+  <si>
+    <t>Ep4: Use Data Factory Pipelines in Microsoft Fabric</t>
+  </si>
+  <si>
+    <t>DUP</t>
+  </si>
+  <si>
+    <t>Ep5: Ingest Data with Dataflows Gen2 in Microsoft Fabric</t>
+  </si>
+  <si>
+    <t>Ep6: Get started with data warehouses in Microsoft Fabric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,7 +439,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -541,12 +572,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -579,14 +609,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -899,10 +940,1155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F180EED-F52E-41D2-8301-1E47E800243C}">
-  <dimension ref="B2:K43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CC8F1D-AB2E-48D2-9DC5-EB07BF29C76C}">
+  <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="71.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="38"/>
+      <c r="C32" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="J32" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" s="40"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="38"/>
+      <c r="C33" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="K33" s="40"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="43"/>
+      <c r="C34" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="K34" s="43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B4:K34" xr:uid="{3F180EED-F52E-41D2-8301-1E47E800243C}"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{08FC8A4A-0C8B-45DA-9EC0-5D2087207700}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{50714AA2-4D85-472C-9B53-394F40185DA2}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{A30204E0-8F5D-4F7D-8DF7-C54C9CF0D637}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{7788B396-D903-4148-869C-394CE8E5E0AC}"/>
+    <hyperlink ref="B23" r:id="rId5" xr:uid="{551B6BE4-8CC7-4CD9-993F-CAE042E93C52}"/>
+    <hyperlink ref="B28" r:id="rId6" display="Manage the anlytics development lifecycle" xr:uid="{294699F5-0425-4E5E-BE19-5F5797B3CFAA}"/>
+    <hyperlink ref="B19" r:id="rId7" xr:uid="{E7D00C4B-F270-4816-95E1-4EB97F6E2DFE}"/>
+    <hyperlink ref="G4" r:id="rId8" xr:uid="{828C58D5-7883-4D4B-A57E-DA485D6B8226}"/>
+    <hyperlink ref="H4" r:id="rId9" xr:uid="{9D812F63-D687-4DA4-AC03-C5871F50BB7F}"/>
+    <hyperlink ref="I4" r:id="rId10" xr:uid="{AF29494B-B26D-4DB3-8942-219C16F81BF2}"/>
+    <hyperlink ref="J4" r:id="rId11" xr:uid="{6A15B054-F734-4491-A54E-89E8F37A8994}"/>
+    <hyperlink ref="C31" r:id="rId12" xr:uid="{A9D7A016-9658-4B6D-AE47-187DDED573FD}"/>
+    <hyperlink ref="C34" r:id="rId13" xr:uid="{557AECA1-A68C-4A38-8A65-54BEF8F993CB}"/>
+    <hyperlink ref="C33" r:id="rId14" xr:uid="{57B1034E-E8BF-4E52-8354-646733FCF9A4}"/>
+    <hyperlink ref="F4" r:id="rId15" xr:uid="{44B779E0-1056-4773-9799-C45DDC5B6F14}"/>
+    <hyperlink ref="C41" r:id="rId16" display="DP-500" xr:uid="{394898ED-3556-4EBE-BE73-0A7B04E82A8C}"/>
+    <hyperlink ref="C42" r:id="rId17" display="DP-500 GitHub Pages" xr:uid="{8ABC9B84-9D6B-4E0E-9BBC-8861EA315C0E}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{34CCA4D7-8A66-4091-98C9-1826FF0630DF}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{8E646F58-9C6C-48C5-84F4-A69B8BBA1C73}"/>
+    <hyperlink ref="D19" r:id="rId20" xr:uid="{1EF8D2CA-52C5-48CF-A4FB-32776BBF0D7F}"/>
+    <hyperlink ref="D27" r:id="rId21" xr:uid="{3D251DB3-E39B-427E-8F0D-B21486FAD1A5}"/>
+    <hyperlink ref="D22" r:id="rId22" xr:uid="{F24EB732-EA82-458E-AF93-19C7D2B49C95}"/>
+    <hyperlink ref="D26" r:id="rId23" xr:uid="{0BA3130C-B53F-4D96-935C-41E081EC8C5E}"/>
+    <hyperlink ref="D23" r:id="rId24" xr:uid="{86066C0B-071A-454D-AAD8-0F158D1F9AEA}"/>
+    <hyperlink ref="C44" r:id="rId25" xr:uid="{C51CD2A9-2419-4511-ADE3-9F7FE5B2E900}"/>
+    <hyperlink ref="D24" r:id="rId26" xr:uid="{0E3F65DC-9D34-4657-BB39-A4C6C9DE1C5B}"/>
+    <hyperlink ref="C45" r:id="rId27" xr:uid="{FC227DE1-3E6F-4058-91B9-6DB68B5FE69F}"/>
+    <hyperlink ref="C38" r:id="rId28" display="MSLearn Fabric (Git repository)" xr:uid="{6CBAD373-EC0A-4C4C-8753-DE9D00DD2A27}"/>
+    <hyperlink ref="C39" r:id="rId29" display="MSLearn Fabric (GitHub pages)" xr:uid="{67488736-85D0-4941-A9EB-8A6AF61E6792}"/>
+    <hyperlink ref="D25" r:id="rId30" xr:uid="{65CBD0AA-66B9-44A2-8BF7-A45177915E43}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{BFEE07C7-3F6D-42B7-8D26-6E208934F827}"/>
+    <hyperlink ref="C28" r:id="rId32" xr:uid="{37C633E2-8900-4808-9C38-C745B41EB568}"/>
+    <hyperlink ref="C29" r:id="rId33" xr:uid="{0F39F4F6-AD89-42F7-A700-9257FEF5B901}"/>
+    <hyperlink ref="C30" r:id="rId34" xr:uid="{02DBA142-08B2-47DA-A60A-BA1635B23EA1}"/>
+    <hyperlink ref="D30" r:id="rId35" xr:uid="{925A3BF1-3411-486D-8729-B1B2A4898B3C}"/>
+    <hyperlink ref="D34" r:id="rId36" display="MSLearn Fabric Lab 11" xr:uid="{A4D5207D-57D6-400A-94DA-36A14F978784}"/>
+    <hyperlink ref="D32" r:id="rId37" display="MSLearn Fabric Lab 08" xr:uid="{924A6954-B099-4A77-A65E-10DC8F72176A}"/>
+    <hyperlink ref="D31" r:id="rId38" display="MSLearn Fabric Lab 07" xr:uid="{55B490C3-F4AD-4796-95F9-D759410AFCAA}"/>
+    <hyperlink ref="C5" r:id="rId39" xr:uid="{0780142E-7343-4DCD-AB92-008EAF762216}"/>
+    <hyperlink ref="C6" r:id="rId40" xr:uid="{95ED1E52-2DA7-4DF6-9F84-80A8C766DA05}"/>
+    <hyperlink ref="C7" r:id="rId41" xr:uid="{539D57D5-C211-4A0C-92D2-2999A71BB6BE}"/>
+    <hyperlink ref="D5" r:id="rId42" xr:uid="{96C7ED78-6B14-4EEC-82A8-35A9B415E213}"/>
+    <hyperlink ref="D6" r:id="rId43" xr:uid="{EC672BCE-C045-4701-97FA-47B47D7F574C}"/>
+    <hyperlink ref="D7" r:id="rId44" xr:uid="{85092EC6-EEA8-4F83-9503-8AC052D5C418}"/>
+    <hyperlink ref="C9" r:id="rId45" xr:uid="{5A67EBDA-8F72-4F69-BBFD-E51C64188E87}"/>
+    <hyperlink ref="C8" r:id="rId46" xr:uid="{60289D9F-AF10-46C7-AC8E-1F526245EA36}"/>
+    <hyperlink ref="C10" r:id="rId47" xr:uid="{ABAC4775-46D5-4CA9-9E28-5D9F12DDAF99}"/>
+    <hyperlink ref="C11" r:id="rId48" xr:uid="{08FF5672-16AE-4258-8619-460D32897DB8}"/>
+    <hyperlink ref="C12" r:id="rId49" xr:uid="{75ABD2C1-F4B7-4F1D-A6CD-DA543F09F955}"/>
+    <hyperlink ref="C13" r:id="rId50" xr:uid="{62CF8B04-A944-428E-9EF5-2207077477C9}"/>
+    <hyperlink ref="C14" r:id="rId51" xr:uid="{0384B246-DBF9-417D-B51B-1EC53320D606}"/>
+    <hyperlink ref="C15" r:id="rId52" xr:uid="{E6814B8D-C959-4100-94EB-8D0C918777B3}"/>
+    <hyperlink ref="C16" r:id="rId53" xr:uid="{E5C88BA5-3D54-4476-9D23-8EE01BC10B57}"/>
+    <hyperlink ref="C17" r:id="rId54" xr:uid="{4BA618DB-E73A-4920-BFA7-8DC0E2CDB8CA}"/>
+    <hyperlink ref="C18" r:id="rId55" xr:uid="{14984553-9FC9-475A-8427-F5D05CDD280D}"/>
+    <hyperlink ref="C19" r:id="rId56" xr:uid="{6BD42B1B-89CC-46FD-813D-DCA8D91AC78C}"/>
+    <hyperlink ref="C20" r:id="rId57" xr:uid="{EE206722-3EEE-4582-ACF8-F01AD666611A}"/>
+    <hyperlink ref="C21" r:id="rId58" xr:uid="{17CD9ABF-CD31-4851-BA83-DEC11CEC550E}"/>
+    <hyperlink ref="C22" r:id="rId59" xr:uid="{2544FAD4-983E-4167-91D1-32D46031F07D}"/>
+    <hyperlink ref="C24" r:id="rId60" xr:uid="{4E1D200F-99F8-4FD3-8D76-2BB4904F6198}"/>
+    <hyperlink ref="C25" r:id="rId61" xr:uid="{15A21BA2-F59E-4CF6-B0D6-C28F352306F2}"/>
+    <hyperlink ref="C26" r:id="rId62" xr:uid="{D25B05E4-FFE5-4DD1-8FA1-5AECD58245DF}"/>
+    <hyperlink ref="C27" r:id="rId63" xr:uid="{B03E9174-3F5D-41B9-BA5A-7D6CBECF5C3D}"/>
+    <hyperlink ref="C23" r:id="rId64" xr:uid="{6665C361-882B-4560-886D-DB46841737AF}"/>
+    <hyperlink ref="D9" r:id="rId65" xr:uid="{9F596094-4E2B-4F9E-B77B-993BE73D792B}"/>
+    <hyperlink ref="D10" r:id="rId66" xr:uid="{0CB543C9-8D4A-41BB-A6F0-749F082C6AB3}"/>
+    <hyperlink ref="D11" r:id="rId67" xr:uid="{1271D031-0FB6-4099-B514-4B320DE6AF6E}"/>
+    <hyperlink ref="D12" r:id="rId68" xr:uid="{24A3F74B-CB0A-4A1E-AD9E-101489BB6501}"/>
+    <hyperlink ref="D13" r:id="rId69" xr:uid="{1B3128E8-ED2C-4D63-ACB8-22F242620C78}"/>
+    <hyperlink ref="D14" r:id="rId70" xr:uid="{C8D60AEA-DBAE-4713-BF01-182AE815ADC9}"/>
+    <hyperlink ref="D15" r:id="rId71" xr:uid="{9FF73856-DAA9-42ED-A87A-6FF311822E61}"/>
+    <hyperlink ref="D16" r:id="rId72" xr:uid="{1F772B43-3F2B-4932-AC06-11442D7F162A}"/>
+    <hyperlink ref="D17" r:id="rId73" xr:uid="{D28EAA7F-2A7F-46F4-A152-404192C0FFFB}"/>
+    <hyperlink ref="D18" r:id="rId74" xr:uid="{EA6602BC-CB05-4B6B-B13A-14AD249068EA}"/>
+    <hyperlink ref="K4" r:id="rId75" xr:uid="{E42A79C5-65D2-42EE-B41D-CEB5F562F9CA}"/>
+    <hyperlink ref="K11" r:id="rId76" display="Ep 03" xr:uid="{0B55EA2C-47B0-4735-B621-C16CFE6287A2}"/>
+    <hyperlink ref="C36" r:id="rId77" xr:uid="{29D7B828-A9EC-497D-AC7C-A46FE3EE65A0}"/>
+    <hyperlink ref="K8" r:id="rId78" display="Get started with end-to-end analytics and lakehouses in Microsoft Fabric" xr:uid="{EE77E855-6A68-4E3B-9D05-28FAE3805576}"/>
+    <hyperlink ref="K10" r:id="rId79" xr:uid="{885D2ECA-8377-4615-8DB1-35576B77B6BD}"/>
+    <hyperlink ref="K7" r:id="rId80" display="Use Data Factory Pipelines in Microsoft Fabric" xr:uid="{F1812D9F-F687-42DC-9276-3A558D2863BB}"/>
+    <hyperlink ref="K5" r:id="rId81" xr:uid="{9412CDEC-897B-4A4B-945C-0BE9C458B9CA}"/>
+    <hyperlink ref="K15" r:id="rId82" display="Get started with data warehouses in Microsoft Fabric" xr:uid="{A56279AB-97D3-49D1-8576-DCF242657D94}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId83"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F180EED-F52E-41D2-8301-1E47E800243C}">
+  <dimension ref="B2:J43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -916,15 +2102,14 @@
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -952,18 +2137,15 @@
       <c r="J4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>70</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -984,11 +2166,8 @@
       <c r="J5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="26" t="s">
         <v>16</v>
@@ -1014,11 +2193,8 @@
       <c r="J6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="27" t="s">
         <v>27</v>
@@ -1044,15 +2220,12 @@
       <c r="J7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -1076,11 +2249,8 @@
       <c r="J8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="26" t="s">
         <v>12</v>
@@ -1106,11 +2276,8 @@
       <c r="J9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="26" t="s">
         <v>13</v>
@@ -1136,11 +2303,8 @@
       <c r="J10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="26" t="s">
         <v>14</v>
@@ -1166,11 +2330,8 @@
       <c r="J11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="26" t="s">
         <v>29</v>
@@ -1196,11 +2357,8 @@
       <c r="J12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="26" t="s">
         <v>30</v>
@@ -1226,11 +2384,8 @@
       <c r="J13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="27" t="s">
         <v>15</v>
@@ -1256,18 +2411,15 @@
       <c r="J14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>77</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1288,11 +2440,8 @@
       <c r="J15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="26" t="s">
         <v>8</v>
@@ -1318,11 +2467,8 @@
       <c r="J16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="26" t="s">
         <v>9</v>
@@ -1348,11 +2494,8 @@
       <c r="J17" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="27" t="s">
         <v>10</v>
@@ -1378,15 +2521,12 @@
       <c r="J18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1410,11 +2550,8 @@
       <c r="J19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="26" t="s">
         <v>17</v>
@@ -1440,11 +2577,8 @@
       <c r="J20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="26" t="s">
         <v>20</v>
@@ -1470,11 +2604,8 @@
       <c r="J21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="27" t="s">
         <v>28</v>
@@ -1500,11 +2631,8 @@
       <c r="J22" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>5</v>
       </c>
@@ -1532,20 +2660,17 @@
       <c r="J23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="26" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>41</v>
@@ -1562,11 +2687,8 @@
       <c r="J24" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K24" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="26" t="s">
         <v>19</v>
@@ -1592,11 +2714,8 @@
       <c r="J25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="26" t="s">
         <v>31</v>
@@ -1622,11 +2741,8 @@
       <c r="J26" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K26" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="31" t="s">
         <v>57</v>
@@ -1652,11 +2768,8 @@
       <c r="J27" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>62</v>
       </c>
@@ -1684,11 +2797,8 @@
       <c r="J28" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="26" t="s">
         <v>22</v>
@@ -1714,11 +2824,8 @@
       <c r="J29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K29" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="27" t="s">
         <v>23</v>
@@ -1744,131 +2851,116 @@
       <c r="J30" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="8" t="s">
+      <c r="F31" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="C32" s="4" t="s">
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="38"/>
+      <c r="C32" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="5" t="s">
+      <c r="F32" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="K32" s="20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="20" t="s">
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="38"/>
+      <c r="C33" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="5" t="s">
+      <c r="D33" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="K33" s="20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="21" t="s">
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="43"/>
+      <c r="C34" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" s="6" t="s">
+      <c r="F34" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="K34" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>84</v>
       </c>
@@ -1879,7 +2971,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
         <v>85</v>
       </c>
@@ -1890,7 +2982,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>97</v>
       </c>
@@ -1898,7 +2990,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>54</v>
       </c>
@@ -1909,7 +3001,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>55</v>
       </c>
@@ -1920,7 +3012,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>100</v>
       </c>
@@ -1928,7 +3020,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>63</v>
       </c>
@@ -1939,13 +3031,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:K34" xr:uid="{3F180EED-F52E-41D2-8301-1E47E800243C}"/>
+  <autoFilter ref="B4:J34" xr:uid="{3F180EED-F52E-41D2-8301-1E47E800243C}"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{4BF04D53-5D6A-4C00-85EE-51A4DB2B216B}"/>
     <hyperlink ref="B15" r:id="rId2" xr:uid="{D822AA2C-BA0B-41C9-8934-FF810D4F97E9}"/>
@@ -2021,31 +3113,17 @@
     <hyperlink ref="D16" r:id="rId72" xr:uid="{3AA2ACF9-071B-40FD-ADA7-E5BFE6974B15}"/>
     <hyperlink ref="D17" r:id="rId73" xr:uid="{A20AF6BF-DF5A-41F4-AC10-F0F04C6BFC03}"/>
     <hyperlink ref="D18" r:id="rId74" xr:uid="{DD08DC7F-0591-48A5-A6D0-C06F6E7EEEB0}"/>
-    <hyperlink ref="K5" r:id="rId75" xr:uid="{6F9E5C26-8A97-4E93-9CB4-EF80B6EF11FE}"/>
-    <hyperlink ref="K7" r:id="rId76" xr:uid="{F2A84E33-E84D-4DD0-9626-5E3F2BB758CA}"/>
-    <hyperlink ref="K31" r:id="rId77" xr:uid="{2111E2F7-9B2C-414C-A004-571CEE18CA6C}"/>
-    <hyperlink ref="K10" r:id="rId78" xr:uid="{6FE93CA3-CD97-43E6-93A3-5AC135D9B844}"/>
-    <hyperlink ref="K11" r:id="rId79" xr:uid="{F34FD9F6-1274-4312-B4AF-748230F070D3}"/>
-    <hyperlink ref="K33" r:id="rId80" xr:uid="{E7D1FF3E-56EC-4F77-B8F4-991A4C58E718}"/>
-    <hyperlink ref="K32" r:id="rId81" xr:uid="{98429706-550E-4099-8091-C34AF75A02BD}"/>
-    <hyperlink ref="K15" r:id="rId82" xr:uid="{DC45D908-5BE3-4615-9007-47B4C73E1D1F}"/>
-    <hyperlink ref="K8" r:id="rId83" xr:uid="{DDDE61A0-B00D-4825-A108-6BD901BE9948}"/>
-    <hyperlink ref="K4" r:id="rId84" xr:uid="{7A69C6A0-BEF6-44B2-8072-0D5669F6838B}"/>
-    <hyperlink ref="K12" r:id="rId85" xr:uid="{CAF6D0F6-D6A4-4B73-BD2B-F80785B04D99}"/>
-    <hyperlink ref="K13" r:id="rId86" xr:uid="{977C48C1-72B8-4F98-A3CC-BAC2FEE2E9D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId87"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A18723-27DE-4F05-A927-2EE537C61CF1}">
   <dimension ref="B2:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2099,10 +3177,10 @@
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>70</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2182,7 +3260,7 @@
       <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -2373,10 +3451,10 @@
       <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>77</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -2483,7 +3561,7 @@
       <c r="B19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -2624,10 +3702,10 @@
         <v>18</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>41</v>
@@ -2727,7 +3805,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="26" t="s">
@@ -2810,110 +3888,110 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31" s="13" t="s">
+      <c r="F31" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="J31" s="46" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="C32" s="4" t="s">
+      <c r="B32" s="38"/>
+      <c r="C32" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32" s="12" t="s">
+      <c r="F32" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="47" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="5"/>
-      <c r="C33" s="20" t="s">
+      <c r="B33" s="38"/>
+      <c r="C33" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J33" s="12" t="s">
+      <c r="D33" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="38"/>
+      <c r="F33" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" s="47" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="21" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J34" s="15" t="s">
+      <c r="F34" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="48" t="s">
         <v>41</v>
       </c>
     </row>
